--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="169">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Color BASIC</t>
   </si>
   <si>
+    <t xml:space="preserve">Disk Color BASIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extended Color BASIC</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t xml:space="preserve">jvmBasic</t>
   </si>
   <si>
-    <t xml:space="preserve">+ - * / &gt; &lt; , = ; : ^ &amp; ? &lt;= &gt;= &lt;&gt; ' $  : ? , ;</t>
+    <t xml:space="preserve">+ - * / &gt; &lt; , = ; : ^ &amp; ? &lt;= &gt;= &lt;&gt; &gt;&lt; ' $  : ? , ;</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">AUDIO</t>
   </si>
   <si>
+    <t xml:space="preserve">BACKUP TO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUTTON</t>
   </si>
   <si>
@@ -103,12 +109,18 @@
     <t xml:space="preserve">CONT</t>
   </si>
   <si>
+    <t xml:space="preserve">COPY</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSAVE</t>
   </si>
   <si>
     <t xml:space="preserve">CSAVEM</t>
   </si>
   <si>
+    <t xml:space="preserve">CVN</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATA</t>
   </si>
   <si>
@@ -124,16 +136,31 @@
     <t xml:space="preserve">DIM</t>
   </si>
   <si>
+    <t xml:space="preserve">DIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISKINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSKI$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSKO$</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRAW</t>
   </si>
   <si>
+    <t xml:space="preserve">DRIVE</t>
+  </si>
+  <si>
     <t xml:space="preserve">DLOAD</t>
   </si>
   <si>
     <t xml:space="preserve">EDIT</t>
   </si>
   <si>
-    <t xml:space="preserve">1END</t>
+    <t xml:space="preserve">END</t>
   </si>
   <si>
     <t xml:space="preserve">EOF</t>
@@ -157,6 +184,9 @@
     <t xml:space="preserve">GET</t>
   </si>
   <si>
+    <t xml:space="preserve">GET#</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOSUB</t>
   </si>
   <si>
@@ -166,6 +196,15 @@
     <t xml:space="preserve">FIX</t>
   </si>
   <si>
+    <t xml:space="preserve">FIELD AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE</t>
+  </si>
+  <si>
     <t xml:space="preserve">HBUFF</t>
   </si>
   <si>
@@ -235,6 +274,9 @@
     <t xml:space="preserve">JOYSTK</t>
   </si>
   <si>
+    <t xml:space="preserve">KILL</t>
+  </si>
+  <si>
     <t xml:space="preserve">LET</t>
   </si>
   <si>
@@ -250,30 +292,54 @@
     <t xml:space="preserve">LINE INPUT</t>
   </si>
   <si>
+    <t xml:space="preserve">LINE INPUT#</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIST</t>
   </si>
   <si>
     <t xml:space="preserve">LLIST</t>
   </si>
   <si>
+    <t xml:space="preserve">LOAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOADM</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOCATE</t>
   </si>
   <si>
+    <t xml:space="preserve">LOC</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOG</t>
   </si>
   <si>
+    <t xml:space="preserve">LOF</t>
+  </si>
+  <si>
     <t xml:space="preserve">LPEEK</t>
   </si>
   <si>
     <t xml:space="preserve">LPOKE</t>
   </si>
   <si>
+    <t xml:space="preserve">LSET</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEM</t>
   </si>
   <si>
+    <t xml:space="preserve">MERGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">MID$</t>
   </si>
   <si>
+    <t xml:space="preserve">MKN$</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOTOR</t>
   </si>
   <si>
@@ -364,6 +430,9 @@
     <t xml:space="preserve">REM</t>
   </si>
   <si>
+    <t xml:space="preserve">RENAME TO</t>
+  </si>
+  <si>
     <t xml:space="preserve">RENUM</t>
   </si>
   <si>
@@ -382,9 +451,18 @@
     <t xml:space="preserve">RND</t>
   </si>
   <si>
+    <t xml:space="preserve">RSET</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUN</t>
   </si>
   <si>
+    <t xml:space="preserve">SAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVEM</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCREEN</t>
   </si>
   <si>
@@ -415,6 +493,9 @@
     <t xml:space="preserve">STOP</t>
   </si>
   <si>
+    <t xml:space="preserve">TAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAN</t>
   </si>
   <si>
@@ -436,7 +517,16 @@
     <t xml:space="preserve">VARPTR</t>
   </si>
   <si>
+    <t xml:space="preserve">VERIFY</t>
+  </si>
+  <si>
     <t xml:space="preserve">WIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRITE#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLOAD</t>
   </si>
 </sst>
 </file>
@@ -451,6 +541,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -536,20 +627,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,1879 +668,2641 @@
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>8</v>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C86" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C96" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C100" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C104" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C105" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="221">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -527,6 +528,199 @@
   </si>
   <si>
     <t xml:space="preserve">UNLOAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each token is converted to 1 character even if it takes more characters.  PRINT is not 5 characters in memory.  It is 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color BASIC expanded the number of tokens beyond (128-255).  Primary tokens take 1 byte.  Secondary tokens take 2 bytes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables are kept in a large table at the end of the program.  Ordered by the dim statement and are retrieved thru a sequential search each time accessed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOTO searches for line number sequentially.  Finding line numbers at the end takes longer than line numbers at the start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many functions have default input parameters.  Functions include parenthesis and return a value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASIC command are first searched from Color Basic, Extended Basic, then Disk Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLEAR and PAINT have assembly errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables can only 2 characters.  Any more are ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 bytes are allocated for each variable; number or string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String variables are indicated with a $ postfix characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strings are limited to 255 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each variable in the variable table take 7 bytes.  Numbers are 2 bytes of name plus 5 bytes of value.  Strings are 2 bytes of name and 5 bytes pointer and length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a variable is encountered, the variable table is searched, if not found a new entry is made to the table at the end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers are floating point; 1E-38 to 1E+39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays don’t have to be declared if 1 dimension and less than 10 elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays are stored in the variable table with a header block 5+2*N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If large arrays are declared first they exist earlier in the variable table making searches for other variables slower</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Device Numbers: 0 screen, -</t>
+    </r>
+    <r>
+      <rPr>
+        <strike val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 cassette,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 line printer, 3 DLOAD (RS232), 1 thru 15 are disk files</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest line number is 63,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortcut character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAB(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
 </sst>
 </file>
@@ -536,7 +730,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -557,6 +751,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,11 +830,11 @@
   </sheetPr>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -3313,4 +3514,1407 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I185"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <f aca="false">HEX2DEC("80")</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Color Basic" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="268">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -630,6 +630,66 @@
     <t xml:space="preserve">Largest line number is 63,999</t>
   </si>
   <si>
+    <t xml:space="preserve">Order of Precedence of Expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulas in Parenthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^ Exponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-X Negation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*/ Multiply Divide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+- Add Subtract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation Operators (Equal Precedence for all 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'= Equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; Not Equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Less Than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Greater Than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= Less Than or Equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;= Greater Than or Equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT Logical and Bitwise, takes only the formula to it’s right argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND Logical and Bitwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR Logical or Bitwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters within a set if strings are compared leftmost to the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blank is less than “1” which is less than “A” which is less than “B”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All characters are compared in sequence with the first unequal character defining the relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a search for GOSUB/RETURN and FOR/NEXT matches across lines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tokens</t>
   </si>
   <si>
@@ -645,30 +705,96 @@
     <t xml:space="preserve">.</t>
   </si>
   <si>
+    <t xml:space="preserve">Stores on the stack for each loop.  Syntax error for missing TO.  Type mismatch for Index variable set to string.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO</t>
   </si>
   <si>
-    <t xml:space="preserve">'’</t>
+    <t xml:space="preserve">Syntax error if not TO or SUB following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move input pointer to end of line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'</t>
   </si>
   <si>
     <t xml:space="preserve">ELSE</t>
   </si>
   <si>
+    <t xml:space="preserve">Move input pointer to end of line, like REM</t>
+  </si>
+  <si>
     <t xml:space="preserve">IF</t>
   </si>
   <si>
+    <t xml:space="preserve">Evaluate Numeric Expression. Token for Go, treat GO as THEN.  Keep track of nested ELSE.  Token for ELSE, Searches for ELSE in multple sublines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move data pointer to end of subline or line</t>
+  </si>
+  <si>
     <t xml:space="preserve">ON</t>
   </si>
   <si>
+    <t xml:space="preserve">Syntax error if not TO or SUB following.  Largest line number is $F9FF (63999)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID error if in direct mode.  Check for device number.  Check for valid input file.  Check for $ delimiter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Files</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEXT</t>
   </si>
   <si>
+    <t xml:space="preserve">Check for NEXT without FOR.  Pull off stack if loop is done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read from input buffer into variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal call if &gt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close any open files, erase all variables, goto the run address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exit if argument given.  Check for return data on stack.  Return without Gosub error.  Undefined line number error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break from Execution loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color 0-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return if argument given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no arguments erase all variables, initialize pointers, etc.  Else set aside space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erase the BASIC program.  Reset string variables.  Reset Arrays.  Clear any Return.  Reset CONT address.</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-9</t>
   </si>
   <si>
     <t xml:space="preserve">CLOSE</t>
   </si>
   <si>
+    <t xml:space="preserve">Color Number 0-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If argument&gt;8 print Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax error if not ON or OFF following token</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAB(</t>
   </si>
   <si>
@@ -718,6 +844,21 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color subline terminator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-token expression.  Default “token”.  Syntax check for “=”.  Evaluate expression.  Type check variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax error on ==, &lt;&lt;, or &gt;&gt;.  Type check each side of operation.  </t>
   </si>
   <si>
     <t xml:space="preserve">?</t>
@@ -834,7 +975,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -3521,13 +3662,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -3635,1276 +3776,1460 @@
         <v>189</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>1</v>
+      <c r="C24" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>129</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>130</v>
+      <c r="C28" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>131</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>131</v>
+      <c r="D29" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>132</v>
+      <c r="D30" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>133</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>133</v>
+      <c r="D31" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>134</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>134</v>
+      <c r="D32" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>135</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>135</v>
+      <c r="D33" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>136</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>136</v>
+      <c r="D34" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>137</v>
+      <c r="C35" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>138</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>138</v>
+      <c r="C36" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>139</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>139</v>
+      <c r="C37" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>140</v>
+      <c r="B38" s="0" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>141</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>141</v>
+      <c r="C39" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>142</v>
+      <c r="C40" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>146</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>146</v>
+      <c r="B41" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>28</v>
+        <v>210</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>148</v>
+        <v>212</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>30</v>
+      <c r="A47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>214</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>149</v>
+        <v>128</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>150</v>
+        <v>129</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>151</v>
+        <v>130</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>154</v>
+        <v>133</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>155</v>
+        <v>134</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>156</v>
+        <v>135</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>157</v>
+        <v>136</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>158</v>
+        <v>137</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>160</v>
+        <v>139</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>162</v>
+        <v>141</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>164</v>
+        <v>143</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>165</v>
+        <v>144</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>166</v>
+        <v>145</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>167</v>
+        <v>146</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>168</v>
+        <v>147</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>170</v>
+        <v>149</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>171</v>
+        <v>150</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>177</v>
+        <v>156</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>179</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <f aca="false">HEX2DEC("80")</f>
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>80</v>
+        <v>59</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec("80")</f>
+        <v>128</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
         <v>168</v>
       </c>
     </row>

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Color Basic" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Extended Color Basic" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Disk Basic" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="304">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -530,7 +532,7 @@
     <t xml:space="preserve">UNLOAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Color Basic</t>
+    <t xml:space="preserve">Color Basic 1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -690,10 +692,16 @@
     <t xml:space="preserve">There is a search for GOSUB/RETURN and FOR/NEXT matches across lines</t>
   </si>
   <si>
-    <t xml:space="preserve">Tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortcut character</t>
+    <t xml:space="preserve">Variable name is read until a non a non alpha or non numeric is found.  Ignore all characters after 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to 2d Arrays?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array can’t be greater than $5535FFFF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check array use matches DIM dimension</t>
   </si>
   <si>
     <t xml:space="preserve">Primary List</t>
@@ -702,21 +710,27 @@
     <t xml:space="preserve">Secondary List</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stores on the stack for each loop.  Syntax error for missing TO.  Type mismatch for Index variable set to string.</t>
   </si>
   <si>
+    <t xml:space="preserve">Convert signed number into floating point number.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO</t>
   </si>
   <si>
     <t xml:space="preserve">Syntax error if not TO or SUB following</t>
   </si>
   <si>
+    <t xml:space="preserve">Shift binary point to the extreme  right of the mantissa.  At the conclusion only the integer portion will remain.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Move input pointer to end of line</t>
   </si>
   <si>
+    <t xml:space="preserve">Looks complex.</t>
+  </si>
+  <si>
     <t xml:space="preserve">'</t>
   </si>
   <si>
@@ -726,6 +740,9 @@
     <t xml:space="preserve">Move input pointer to end of line, like REM</t>
   </si>
   <si>
+    <t xml:space="preserve">Calculate a random number in the range of 0-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">IF</t>
   </si>
   <si>
@@ -735,24 +752,42 @@
     <t xml:space="preserve">Move data pointer to end of subline or line</t>
   </si>
   <si>
+    <t xml:space="preserve">Check for @.  Check for print number.  Check valid device number or output files.  Check for TAB.  Check for comma.  Check for semicolon.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get length descriptor of string variable</t>
+  </si>
+  <si>
     <t xml:space="preserve">ON</t>
   </si>
   <si>
     <t xml:space="preserve">Syntax error if not TO or SUB following.  Largest line number is $F9FF (63999)</t>
   </si>
   <si>
+    <t xml:space="preserve">Check type.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID error if in direct mode.  Check for device number.  Check for valid input file.  Check for $ delimiter.</t>
   </si>
   <si>
+    <t xml:space="preserve">FC error for negative numbers or &gt;32767.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Close Files</t>
   </si>
   <si>
+    <t xml:space="preserve">Convert first character of string to number.  Throw FC error if null string</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEXT</t>
   </si>
   <si>
     <t xml:space="preserve">Check for NEXT without FOR.  Pull off stack if loop is done.</t>
   </si>
   <si>
+    <t xml:space="preserve">Convert string to integer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Read from input buffer into variable</t>
   </si>
   <si>
@@ -765,6 +800,9 @@
     <t xml:space="preserve">Exit if argument given.  Check for return data on stack.  Return without Gosub error.  Undefined line number error.</t>
   </si>
   <si>
+    <t xml:space="preserve">Length parameter optional.  FC error for null string.  If position &gt; length then null string.  If length &lt;= parameter then use whole length.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Break from Execution loop</t>
   </si>
   <si>
@@ -774,18 +812,24 @@
     <t xml:space="preserve">Return if argument given</t>
   </si>
   <si>
+    <t xml:space="preserve">Does not include Stack space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncrunches each line to display</t>
+  </si>
+  <si>
     <t xml:space="preserve">If no arguments erase all variables, initialize pointers, etc.  Else set aside space</t>
   </si>
   <si>
     <t xml:space="preserve">Erase the BASIC program.  Reset string variables.  Reset Arrays.  Clear any Return.  Reset CONT address.</t>
   </si>
   <si>
-    <t xml:space="preserve">0-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLOSE</t>
   </si>
   <si>
+    <t xml:space="preserve">Set the device number to printer and then list.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Color Number 0-8</t>
   </si>
   <si>
@@ -798,6 +842,9 @@
     <t xml:space="preserve">TAB(</t>
   </si>
   <si>
+    <t xml:space="preserve">Syntax error if not ).  </t>
+  </si>
+  <si>
     <t xml:space="preserve">TO</t>
   </si>
   <si>
@@ -828,6 +875,9 @@
     <t xml:space="preserve">/</t>
   </si>
   <si>
+    <t xml:space="preserve">Divide by 0 error.</t>
+  </si>
+  <si>
     <t xml:space="preserve">^</t>
   </si>
   <si>
@@ -858,10 +908,70 @@
     <t xml:space="preserve">Expression Evaluation</t>
   </si>
   <si>
-    <t xml:space="preserve">Syntax error on ==, &lt;&lt;, or &gt;&gt;.  Type check each side of operation.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">Syntax error on ==, &lt;&lt;, or &gt;&gt;.  Type check each side of operation.  Evaluate stores 8 bytes on stack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha expression.  Certain tokens can be evaluated in and alpha expression.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">String concatenation.  Type mismatch if numeric variable.  Check if length &gt; 255.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended Color Basic 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk Color Basic 4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSKINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKSI$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1085,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -3662,13 +3772,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -3682,1555 +3792,1155 @@
       <c r="A3" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="K46" s="0" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>129</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>131</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>131</v>
+        <v>214</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>216</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L51" s="0" t="n">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>133</v>
+        <v>218</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>133</v>
+        <v>82</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>221</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>134</v>
+        <v>11</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>135</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="L54" s="0" t="n">
-        <v>135</v>
+        <v>223</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F55" s="0" t="n">
-        <v>136</v>
-      </c>
       <c r="G55" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>136</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>137</v>
+        <v>227</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>228</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="L56" s="0" t="n">
-        <v>137</v>
+        <v>151</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>138</v>
+        <v>33</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>138</v>
+        <v>116</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>230</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>140</v>
+        <v>232</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>141</v>
+        <v>78</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>235</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>141</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>232</v>
+        <v>163</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>142</v>
+        <v>46</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>237</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>142</v>
+        <v>12</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="F62" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L62" s="0" t="n">
-        <v>143</v>
+      <c r="C62" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="F63" s="0" t="n">
-        <v>144</v>
-      </c>
       <c r="G63" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="L63" s="0" t="n">
-        <v>144</v>
+        <v>47</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>242</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>236</v>
+        <v>83</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>146</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L65" s="0" t="n">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>143</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L66" s="0" t="n">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>247</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>238</v>
+        <v>123</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>150</v>
+        <v>122</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>146</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>239</v>
+        <v>80</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>151</v>
+        <v>28</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>152</v>
+        <v>91</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>153</v>
+        <v>21</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>154</v>
+        <v>107</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>242</v>
+        <v>30</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>157</v>
+        <v>112</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>159</v>
+        <v>92</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>244</v>
+        <v>138</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>162</v>
+        <v>25</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>163</v>
+        <v>106</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>164</v>
+        <v>155</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>165</v>
+        <v>16</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>166</v>
+        <v>48</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>167</v>
+        <v>149</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>168</v>
+        <v>259</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>169</v>
+        <v>261</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>170</v>
+        <v>262</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>171</v>
+        <v>263</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>172</v>
+        <v>264</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>173</v>
+        <v>265</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>174</v>
+        <v>266</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>175</v>
+        <v>267</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>176</v>
+        <v>268</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>177</v>
+        <v>269</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>178</v>
+        <v>270</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F98" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="C102" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec("80")</f>
         <v>128</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>65</v>
+        <v>277</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>66</v>
+        <v>278</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>68</v>
+        <v>281</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>69</v>
+      <c r="C107" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="D27" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="D28" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="334">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -917,10 +917,64 @@
     <t xml:space="preserve">String concatenation.  Type mismatch if numeric variable.  Check if length &gt; 255.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Extended Color Basic 2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk Color Basic 4.2</t>
+    <t xml:space="preserve">Extended Color Basic 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended BASIC adds new graphics commands, DLOAD, PRINT USING, and complext mathematical commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended BASIC adds &amp;H and &amp;O number types, CLOAD binary blocks,..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No new variable types are introduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version 1.1 and 1.0 are very similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINT USING consumes 1/8 of the spaces in the ROM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All PMODES allow 0-255 and 0-191.  For smaller screens the inputs are scaled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the G option with GET is about 10 time slower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLEAR has a bug in 1.0 resulting in strange behaviors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“PMODE 4” will set the graphics mode and not change the viewing page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“PMODE ,2” will leave the graphics mode as is and only alter the viewing page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“PMODE 4,2” will do both.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk Color Basic 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File type: 0-BASIC, 1-BASIC data, 2-machine language, 3-text editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCII flag: 0-binary or crunched BASIC, $FF-ASCII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK BASIC 1.0 used 6k of ROM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK BASIC 1.1 used 6.5k of ROM with .5k of fixes to 1.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Computer disk commands take 8k of ROM and include fixes and more features.</t>
   </si>
   <si>
     <t xml:space="preserve">Primary Tokens</t>
@@ -929,49 +983,85 @@
     <t xml:space="preserve">Secondary Tokens</t>
   </si>
   <si>
-    <t xml:space="preserve">CE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
+    <t xml:space="preserve">FC Error if &lt;&gt; 5 bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max drive number is 3.  Device Error for over 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 4 legal drives.  Error if Drive Number &gt; 3</t>
   </si>
   <si>
     <t xml:space="preserve">FIELD</t>
   </si>
   <si>
-    <t xml:space="preserve">D0</t>
+    <t xml:space="preserve">Syntax check for comma.  Syntax check for AS token.  TM error if numeric variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 FCBS max.  Illegal function call if more than 15.  Syntax check for comma.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Filename.  Syntax error if too many characters  Error if file is open.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM Error if VALTYP is string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for comma.  Is Next Char ‘R’ after LOAD</t>
   </si>
   <si>
     <t xml:space="preserve">AS</t>
   </si>
   <si>
-    <t xml:space="preserve">A7</t>
+    <t xml:space="preserve">TM error if numeric variable.  Syntax check for ‘=’ token.  </t>
   </si>
   <si>
     <t xml:space="preserve">RENAME</t>
   </si>
   <si>
+    <t xml:space="preserve">Syntax check for TO.  FC error if files on different drives.  Verify new file does not exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Filename. Save a crunched file.</t>
+  </si>
+  <si>
     <t xml:space="preserve">WRITE</t>
   </si>
   <si>
+    <t xml:space="preserve">Default to current device if not given.  Check device number validity.  Syntax check for comma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for ON or OFF token.  Syntax error if not found.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DSKINI</t>
   </si>
   <si>
+    <t xml:space="preserve">DN error if no drive number specified.  Calculate drive number.  Syntax check for comma and evaluate expression.  Max value of skip factor is 16.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">BACKUP</t>
   </si>
   <si>
+    <t xml:space="preserve">Device Number error if no drive numbers given.  Token for ‘TO’.  Syntax for ‘TO’.  Will use more memory if free memory is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token for ‘TO’.  Syntax error for ‘TO’.  OM error if not at least one full sector of free RAM.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">DKSI$</t>
   </si>
   <si>
+    <t xml:space="preserve">Evaluate string variable 1 and 2.  Syntax check for comma.  TM error if numeric variable.  FC error if drive number &gt; 3.  FC error if track number &gt; 34.  Syntax check for comma.  Evaluate expression(sector number).  FC Error if sector number too big.  Syntax check for comma.  Evaluate Routine address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the drive, track, and sector numbers.  TM Error if numeric expression.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOS</t>
   </si>
   <si>
-    <t xml:space="preserve">E1</t>
+    <t xml:space="preserve">Warm start OS9</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1175,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -3778,7 +3868,7 @@
       <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -4739,13 +4829,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4755,6 +4845,71 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4773,17 +4928,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,156 +4946,310 @@
         <v>170</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>213</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>288</v>
+        <v>143</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>290</v>
+        <v>145</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>292</v>
+        <v>321</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>96</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>98</v>
+        <v>168</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>105</v>
+        <v>324</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>296</v>
+        <v>326</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>101</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>103</v>
+        <v>329</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>297</v>
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>168</v>
+        <v>332</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>299</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>300</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>303</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="385">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -957,6 +957,159 @@
   </si>
   <si>
     <t xml:space="preserve">“PMODE 4,2” will do both.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“SCREEN1” will just select the graphics screen and not change the colorset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“SCREEN ,1” will change the colorset and leave the viewing screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINT will reset the screen and colorset to default values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLS clears the graphics page.  If not argument defaults to current background color.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLS can be hacked by POKEing new BEGGRP and ENDGRP values, running PCLS, a restoring them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOR arguments are optional.  “COLOR,1” and “COLOR1” and “COLOR1,1” are acceptable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPOINT checks to see if the pixel at X,Y is a color or turned off.  X,Y are scaled according to the screen. Result I s 0 to 8 where 0 is off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINE does INPUT follow then go to LINE INPUT.  Else if “(, or “-”, or “@” Else syntax error.  The “@” does not do anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSET sets or turns on a single pixel for the current PMODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESET uses PSET a flag indicates PRESET called PSET and the pixel is turned off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAW can take parameters for length, color, and scale.  The syntax is: 10 A=10:B=13 20 DRAW “BM=A,A;U=B;R=B;D=B;L=B”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRCLE is drawn as a 64 sided polygon using a formula and sine/cosine table.  Partial circles, color, height to width ratio can be specified. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAINT starts at an x,y coordinate and draws horizontal lines till a border of specified color is encounted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCOPY copies 1.5K of memory from one graphics page to anothers.  There are 8 pages.  PCOPY has a bug that lets you copy page 5.  This is fixed on the Dragon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAY uses the same string interpreter as DRAW and can take variables the same way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLEAR bug has a fix in 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC error if no argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the argument squared &lt;1.0 then ATN=X-(X**3)/3_(X**5)/5-(X**7)/7  If &gt;=1.0 then ATN=PI/2-(1/X-1/((X**3)*3)+(1/((X**5)*5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems like 250 byte max;I insert, X extend, H hack, D delete, E Exit, Q quit, L list, A abort, CR enter key, C change, K kill, S search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COS(X)=SIN(PI/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAN(X)=SIN(X)/COS(X)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E**X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural or naperian logarithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for (, look for start end point sep by -, check for @, syntax check for “,”, check for PRESET &amp; PSET token, syntax check for “,”, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The formula for exponentiation is A**X=E**(X LN A)= E**(FPA0*LN(FPA1)), E=2.7182818 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point number are separated by -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for (, Syntax check for ), FC error if variable was not already dimmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for (, default position=1, syntax check for comma, syntax check for )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only allow 0-8, illegal function if bad color, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color is 1-4, Color set is 0 or 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCOPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for comma, save new interval, check renumber range is valid, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for (, throw error if &gt;255, syntax check for comma, syntax check for )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MID$(OLDSTRING, POSITION, LENGTH)=REPLACEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for (, syntax check for “,”, syntax check for “,”, token for =, syntax check for =, FC error if postion &gt; length of oldstring, TM error if save to numeric variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for “O”, “H”, defaults to “O”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal character error if &gt;=G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get 2 input characters, Look for USR, Syntax check for (, TM error if string, syntax check for )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token for FN, syntax check for FN, syntax check for (, TM error if string, undefined function call error, syntax error if not end of line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for (, get variable type, jump to USR, token for =, syntax check for =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS error if in direct mode, check valid device number, check for open file, syntax check for commas, check for prompt string, syntax check for “;”, TM error if variable is numeric, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for M, FM error if mode&lt;&gt;2 or type&lt;&gt;0, syntax check for comma, syntax error if more chars on line, give up after 5 tries, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM error if variable is numeric, syntax check for “;”, FC error if no more print items, FC Error if format string is null, !#+.% and much more</t>
   </si>
   <si>
     <t xml:space="preserve">Disk Color Basic 1.1</t>
@@ -1175,7 +1328,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -3868,7 +4021,7 @@
       <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -4829,13 +4982,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4910,6 +5063,510 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4934,11 +5591,11 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,27 +5605,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,10 +5635,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +5655,7 @@
         <v>162</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,7 +5666,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>60</v>
@@ -5018,18 +5675,18 @@
         <v>163</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>208</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>96</v>
@@ -5046,7 +5703,7 @@
         <v>209</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>98</v>
@@ -5063,7 +5720,7 @@
         <v>210</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>105</v>
@@ -5072,7 +5729,7 @@
         <v>166</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,10 +5740,10 @@
         <v>211</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>167</v>
@@ -5100,7 +5757,7 @@
         <v>212</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,13 +5770,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>214</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,18 +5795,18 @@
         <v>216</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>217</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5817,7 @@
         <v>218</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,24 +5830,24 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>220</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>221</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,18 +5858,18 @@
         <v>222</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>223</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,18 +5880,18 @@
         <v>224</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>225</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tokens" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Color Basic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Extended Color Basic" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Disk Basic" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Super Extended Color Basic" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Disk Basic" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Dragon" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="394">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -37,9 +39,6 @@
     <t xml:space="preserve">Disk Color BASIC</t>
   </si>
   <si>
-    <t xml:space="preserve">Extended Color BASIC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extended Color Basic 2</t>
   </si>
   <si>
@@ -533,6 +532,9 @@
   </si>
   <si>
     <t xml:space="preserve">Color Basic 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoCo 1</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -920,6 +922,9 @@
     <t xml:space="preserve">Extended Color Basic 1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">CoCo 1 and 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version 1.0</t>
   </si>
   <si>
@@ -1112,6 +1117,15 @@
     <t xml:space="preserve">TM error if variable is numeric, syntax check for “;”, FC error if no more print items, FC Error if format string is null, !#+.% and much more</t>
   </si>
   <si>
+    <t xml:space="preserve">Extended Color Basic 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoCo 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk Extended Color Basic 2.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disk Color Basic 1.1</t>
   </si>
   <si>
@@ -1215,6 +1229,21 @@
   </si>
   <si>
     <t xml:space="preserve">Warm start OS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOSplus 4.9B 3S 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16K Interpreter 1.0 by 1982 by MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcolor Basic 1.0</t>
   </si>
 </sst>
 </file>
@@ -1324,11 +1353,11 @@
   </sheetPr>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -1354,178 +1383,175 @@
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1534,208 +1560,208 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1744,45 +1770,45 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1791,104 +1817,104 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1897,11 +1923,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1910,11 +1936,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1923,11 +1949,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1936,28 +1962,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1966,16 +1992,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1983,73 +2009,73 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2057,88 +2083,88 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2147,68 +2173,68 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2217,11 +2243,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2230,11 +2256,11 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2243,46 +2269,46 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2293,306 +2319,306 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2601,100 +2627,100 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2703,51 +2729,51 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2756,11 +2782,11 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2769,24 +2795,24 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2795,28 +2821,28 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2825,37 +2851,37 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2864,30 +2890,30 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2896,32 +2922,32 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -2930,519 +2956,519 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3451,133 +3477,133 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3586,32 +3612,32 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3620,11 +3646,11 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -3633,199 +3659,199 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -3834,130 +3860,130 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -3966,24 +3992,24 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -3992,10 +4018,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G162" s="1"/>
     </row>
@@ -4017,17 +4043,20 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4266,7 +4295,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>128</v>
@@ -4275,7 +4304,7 @@
         <v>216</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>128</v>
@@ -4295,7 +4324,7 @@
         <v>219</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>129</v>
@@ -4306,7 +4335,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>130</v>
@@ -4315,7 +4344,7 @@
         <v>221</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>130</v>
@@ -4332,7 +4361,7 @@
         <v>131</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>131</v>
@@ -4349,7 +4378,7 @@
         <v>225</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>132</v>
@@ -4369,7 +4398,7 @@
         <v>228</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>133</v>
@@ -4377,7 +4406,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>134</v>
@@ -4386,7 +4415,7 @@
         <v>229</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>134</v>
@@ -4394,7 +4423,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>135</v>
@@ -4403,7 +4432,7 @@
         <v>230</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>135</v>
@@ -4423,7 +4452,7 @@
         <v>233</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>136</v>
@@ -4434,7 +4463,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>137</v>
@@ -4443,7 +4472,7 @@
         <v>235</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>137</v>
@@ -4454,7 +4483,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>138</v>
@@ -4463,7 +4492,7 @@
         <v>237</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>138</v>
@@ -4483,7 +4512,7 @@
         <v>240</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>139</v>
@@ -4494,13 +4523,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>140</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>140</v>
@@ -4508,7 +4537,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>141</v>
@@ -4517,7 +4546,7 @@
         <v>242</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>141</v>
@@ -4528,7 +4557,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>142</v>
@@ -4537,7 +4566,7 @@
         <v>244</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>142</v>
@@ -4545,13 +4574,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>143</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>143</v>
@@ -4559,7 +4588,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>144</v>
@@ -4568,7 +4597,7 @@
         <v>245</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>144</v>
@@ -4579,7 +4608,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>145</v>
@@ -4588,7 +4617,7 @@
         <v>247</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>145</v>
@@ -4599,13 +4628,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>146</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>146</v>
@@ -4613,7 +4642,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>147</v>
@@ -4622,7 +4651,7 @@
         <v>249</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>147</v>
@@ -4633,7 +4662,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>148</v>
@@ -4644,7 +4673,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>149</v>
@@ -4655,7 +4684,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>150</v>
@@ -4666,7 +4695,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>151</v>
@@ -4674,7 +4703,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>152</v>
@@ -4682,7 +4711,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>153</v>
@@ -4698,7 +4727,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>155</v>
@@ -4709,7 +4738,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>156</v>
@@ -4720,7 +4749,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>157</v>
@@ -4728,7 +4757,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>158</v>
@@ -4739,7 +4768,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>159</v>
@@ -4747,7 +4776,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>160</v>
@@ -4755,7 +4784,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>161</v>
@@ -4766,7 +4795,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>162</v>
@@ -4774,7 +4803,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>163</v>
@@ -4936,7 +4965,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>280</v>
@@ -4984,16 +5013,19 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>285</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -5002,147 +5034,147 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,95 +5184,95 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>181</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>148</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>182</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>149</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>183</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>150</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>184</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>151</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>185</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>152</v>
@@ -5248,33 +5280,33 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>186</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>153</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>187</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>154</v>
@@ -5282,30 +5314,30 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>188</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>155</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>189</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>156</v>
@@ -5313,50 +5345,50 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>190</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>157</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>191</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>158</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>192</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>159</v>
@@ -5364,33 +5396,33 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>193</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>160</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>194</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>161</v>
@@ -5398,7 +5430,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>195</v>
@@ -5406,7 +5438,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>196</v>
@@ -5414,7 +5446,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>197</v>
@@ -5422,7 +5454,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>198</v>
@@ -5430,7 +5462,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>199</v>
@@ -5438,7 +5470,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>200</v>
@@ -5446,7 +5478,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>201</v>
@@ -5454,7 +5486,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>202</v>
@@ -5462,18 +5494,18 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>203</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>204</v>
@@ -5481,7 +5513,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>205</v>
@@ -5489,84 +5521,84 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5585,17 +5617,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A9:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,27 +5674,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,61 +5704,61 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>206</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>162</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>207</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>163</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>208</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>164</v>
@@ -5697,16 +5766,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>209</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>165</v>
@@ -5714,36 +5783,36 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>210</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>166</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>211</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>167</v>
@@ -5751,18 +5820,18 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>212</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>213</v>
@@ -5770,18 +5839,18 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>214</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>215</v>
@@ -5789,40 +5858,40 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>216</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>217</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>218</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>219</v>
@@ -5830,83 +5899,133 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>220</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>221</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>222</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>223</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>224</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>225</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tokens" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Color Basic" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Extended Color Basic" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Super Extended Color Basic" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Disk Basic" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Disk Basic" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Extended Color Basic" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Super Extended Color Basic" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Dragon" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="394">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -919,6 +919,117 @@
     <t xml:space="preserve">String concatenation.  Type mismatch if numeric variable.  Check if length &gt; 255.  </t>
   </si>
   <si>
+    <t xml:space="preserve">DEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk Color Basic 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File type: 0-BASIC, 1-BASIC data, 2-machine language, 3-text editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCII flag: 0-binary or crunched BASIC, $FF-ASCII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK BASIC 1.0 used 6k of ROM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK BASIC 1.1 used 6.5k of ROM with .5k of fixes to 1.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Computer disk commands take 8k of ROM and include fixes and more features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Error if &lt;&gt; 5 bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max drive number is 3.  Device Error for over 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 4 legal drives.  Error if Drive Number &gt; 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for comma.  Syntax check for AS token.  TM error if numeric variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 FCBS max.  Illegal function call if more than 15.  Syntax check for comma.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Filename.  Syntax error if too many characters  Error if file is open.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM Error if VALTYP is string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for comma.  Is Next Char ‘R’ after LOAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM error if numeric variable.  Syntax check for ‘=’ token.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax check for TO.  FC error if files on different drives.  Verify new file does not exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Filename. Save a crunched file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default to current device if not given.  Check device number validity.  Syntax check for comma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for ON or OFF token.  Syntax error if not found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSKINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN error if no drive number specified.  Calculate drive number.  Syntax check for comma and evaluate expression.  Max value of skip factor is 16.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Number error if no drive numbers given.  Token for ‘TO’.  Syntax for ‘TO’.  Will use more memory if free memory is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token for ‘TO’.  Syntax error for ‘TO’.  OM error if not at least one full sector of free RAM.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKSI$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate string variable 1 and 2.  Syntax check for comma.  TM error if numeric variable.  FC error if drive number &gt; 3.  FC error if track number &gt; 34.  Syntax check for comma.  Evaluate expression(sector number).  FC Error if sector number too big.  Syntax check for comma.  Evaluate Routine address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the drive, track, and sector numbers.  TM Error if numeric expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm start OS9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extended Color Basic 1.1</t>
   </si>
   <si>
@@ -1036,9 +1147,6 @@
     <t xml:space="preserve">E**X</t>
   </si>
   <si>
-    <t xml:space="preserve">DEF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Natural or naperian logarithm</t>
   </si>
   <si>
@@ -1069,9 +1177,6 @@
     <t xml:space="preserve">Syntax check for comma, save new interval, check renumber range is valid, </t>
   </si>
   <si>
-    <t xml:space="preserve">FN</t>
-  </si>
-  <si>
     <t xml:space="preserve">USING</t>
   </si>
   <si>
@@ -1124,111 +1229,6 @@
   </si>
   <si>
     <t xml:space="preserve">Disk Extended Color Basic 2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk Color Basic 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File type: 0-BASIC, 1-BASIC data, 2-machine language, 3-text editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCII flag: 0-binary or crunched BASIC, $FF-ASCII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISK BASIC 1.0 used 6k of ROM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISK BASIC 1.1 used 6.5k of ROM with .5k of fixes to 1.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Computer disk commands take 8k of ROM and include fixes and more features.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary Tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC Error if &lt;&gt; 5 bytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max drive number is 3.  Device Error for over 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only 4 legal drives.  Error if Drive Number &gt; 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIELD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntax check for comma.  Syntax check for AS token.  TM error if numeric variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 FCBS max.  Illegal function call if more than 15.  Syntax check for comma.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Filename.  Syntax error if too many characters  Error if file is open.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM Error if VALTYP is string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntax check for comma.  Is Next Char ‘R’ after LOAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM error if numeric variable.  Syntax check for ‘=’ token.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntax check for TO.  FC error if files on different drives.  Verify new file does not exist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Filename. Save a crunched file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default to current device if not given.  Check device number validity.  Syntax check for comma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for ON or OFF token.  Syntax error if not found.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSKINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DN error if no drive number specified.  Calculate drive number.  Syntax check for comma and evaluate expression.  Max value of skip factor is 16.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACKUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Number error if no drive numbers given.  Token for ‘TO’.  Syntax for ‘TO’.  Will use more memory if free memory is available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token for ‘TO’.  Syntax error for ‘TO’.  OM error if not at least one full sector of free RAM.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKSI$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate string variable 1 and 2.  Syntax check for comma.  TM error if numeric variable.  FC error if drive number &gt; 3.  FC error if track number &gt; 34.  Syntax check for comma.  Evaluate expression(sector number).  FC Error if sector number too big.  Syntax check for comma.  Evaluate Routine address.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get the drive, track, and sector numbers.  TM Error if numeric expression.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm start OS9</t>
   </si>
   <si>
     <t xml:space="preserve">Dragon</t>
@@ -1253,7 +1253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1277,6 +1277,13 @@
     </font>
     <font>
       <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1325,13 +1332,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1353,11 +1368,11 @@
   </sheetPr>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -4041,13 +4056,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -4151,7 +4166,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4289,685 +4304,907 @@
       <c r="A50" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="H50" s="0" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="H51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="I51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="K51" s="0" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="H52" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="I52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="K52" s="0" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="H53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="K53" s="0" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="H54" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="0" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="D55" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="H55" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="I55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="K55" s="0" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="D56" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="H56" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="I56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="0" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="H57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="0" t="n">
         <v>134</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="H58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="I58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="K58" s="0" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="H59" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="I59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="K59" s="0" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="H60" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="I60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="K60" s="0" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="D61" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="H61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="I61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="K61" s="0" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="H62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="I62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="K62" s="0" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="H63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="I63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="0" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="H64" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="I64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="K64" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="D65" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="H65" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="I65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="0" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="H66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="I66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="0" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="D67" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="H67" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="I67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="K67" s="0" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="D68" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="H68" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="I68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="I68" s="0" t="s">
+      <c r="K68" s="0" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="H69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="I69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="H70" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="I70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="K70" s="0" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="0" t="n">
         <v>151</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="0" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="0" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="D78" s="0" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="0" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="0" t="n">
         <v>159</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="0" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="0" t="n">
         <v>162</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="0" t="n">
         <v>163</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="0" t="n">
         <v>165</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="0" t="n">
         <v>166</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="0" t="n">
         <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="0" t="n">
         <v>168</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="0" t="n">
         <v>169</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="0" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="0" t="n">
         <v>171</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="0" t="n">
         <v>172</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="0" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="0" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="0" t="n">
         <v>176</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="0" t="n">
         <v>177</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="0" t="n">
         <v>178</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="D102" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec("80")</f>
         <v>128</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="0" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4975,12 +5212,12 @@
       <c r="A106" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4988,11 +5225,21 @@
       <c r="A108" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="C108" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5011,20 +5258,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,571 +5278,308 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="0" t="s">
         <v>298</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>299</v>
+      <c r="A16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>300</v>
+      <c r="A17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>301</v>
+      <c r="A18" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>302</v>
+      <c r="A19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>303</v>
+      <c r="A20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>304</v>
+      <c r="A21" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>305</v>
+      <c r="A22" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>306</v>
+      <c r="A23" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>307</v>
+      <c r="A24" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>308</v>
+      <c r="A25" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>309</v>
+      <c r="A26" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>310</v>
+      <c r="A27" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>311</v>
+      <c r="A28" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>312</v>
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>313</v>
+      <c r="A30" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>314</v>
+      <c r="A31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>315</v>
+      <c r="A32" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>181</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>148</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>149</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>183</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>185</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>153</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>188</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>189</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>191</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>193</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>194</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>203</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5617,25 +5598,594 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:C10"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>353</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5654,328 +6204,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A9:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>206</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>207</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>163</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>208</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>209</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>166</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>211</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>212</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>214</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>217</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>218</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>222</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>224</v>
-      </c>
-      <c r="C31" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>225</v>
-      </c>
-      <c r="C32" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6000,7 +6247,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
   </cols>

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="395">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -706,6 +706,9 @@
     <t xml:space="preserve">Check array use matches DIM dimension</t>
   </si>
   <si>
+    <t xml:space="preserve">Max Number \d.\d{,8]E+/-38</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primary List</t>
   </si>
   <si>
@@ -925,7 +928,7 @@
     <t xml:space="preserve">FN</t>
   </si>
   <si>
-    <t xml:space="preserve">Disk Color Basic 1.1</t>
+    <t xml:space="preserve">Disk Extended Color Basic 1.1</t>
   </si>
   <si>
     <t xml:space="preserve">File type: 0-BASIC, 1-BASIC data, 2-machine language, 3-text editor</t>
@@ -1372,7 +1375,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -4056,13 +4059,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -4295,115 +4298,100 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>1</v>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="H51" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="K52" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="K54" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>131</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>131</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,410 +4402,416 @@
         <v>8</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="K56" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>133</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>133</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>229</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>230</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>135</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="K59" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>136</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>136</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="K60" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="K61" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>138</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="K62" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>139</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="0" t="n">
-        <v>139</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>241</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>141</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>141</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="K65" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>245</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="K68" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>248</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="K71" s="0" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>252</v>
@@ -4825,13 +4819,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>253</v>
@@ -4839,71 +4833,71 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>256</v>
@@ -4911,110 +4905,113 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="D88" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>165</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,7 +5033,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,7 +5044,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,7 +5055,7 @@
         <v>8</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5077,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,7 +5088,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,7 +5099,7 @@
         <v>8</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,21 +5110,21 @@
         <v>8</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>174</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>175</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,7 +5135,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,7 +5146,7 @@
         <v>8</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5157,7 @@
         <v>8</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,11 +5168,7 @@
         <v>8</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>179</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec("80")</f>
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5186,7 +5179,11 @@
         <v>8</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec("80")</f>
+        <v>128</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5196,50 +5193,61 @@
       <c r="B104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>279</v>
+      <c r="C104" s="0" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>84</v>
+        <v>279</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="D106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="0" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>171</v>
-      </c>
       <c r="D108" s="0" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5264,11 +5272,11 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,27 +5286,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,10 +5316,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +5336,7 @@
         <v>162</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5339,7 +5347,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>59</v>
@@ -5348,18 +5356,18 @@
         <v>163</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>208</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>95</v>
@@ -5376,7 +5384,7 @@
         <v>209</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>97</v>
@@ -5393,7 +5401,7 @@
         <v>210</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>104</v>
@@ -5402,7 +5410,7 @@
         <v>166</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,10 +5421,10 @@
         <v>211</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>167</v>
@@ -5430,7 +5438,7 @@
         <v>212</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,13 +5451,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>214</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,18 +5476,18 @@
         <v>216</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>217</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,7 +5498,7 @@
         <v>218</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,24 +5511,24 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>220</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>221</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,18 +5539,18 @@
         <v>222</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>223</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,18 +5561,18 @@
         <v>224</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>225</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,20 +5606,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,147 +5629,147 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,10 +5779,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D40" s="0" t="s">
         <v>354</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,16 +5793,16 @@
         <v>181</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="F41" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>356</v>
+      <c r="G41" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,16 +5813,16 @@
         <v>182</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="F42" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>358</v>
+      <c r="G42" s="0" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,14 +5832,14 @@
       <c r="B43" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="E43" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="F43" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>359</v>
+      <c r="G43" s="0" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5841,27 +5849,27 @@
       <c r="B44" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="E44" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="F44" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>360</v>
+      <c r="G44" s="0" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="E45" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="F45" s="0" t="n">
         <v>152</v>
       </c>
     </row>
@@ -5872,14 +5880,14 @@
       <c r="B46" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="E46" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="F46" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>361</v>
+      <c r="G46" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,12 +5898,12 @@
         <v>187</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D47" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="F47" s="0" t="n">
         <v>154</v>
       </c>
     </row>
@@ -5906,14 +5914,14 @@
       <c r="B48" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="E48" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="F48" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>363</v>
+      <c r="G48" s="0" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,10 +5931,10 @@
       <c r="B49" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="E49" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="F49" s="0" t="n">
         <v>156</v>
       </c>
     </row>
@@ -5938,16 +5946,16 @@
         <v>190</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="D50" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="F50" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>365</v>
+      <c r="G50" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,14 +5965,14 @@
       <c r="B51" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="E51" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="F51" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>366</v>
+      <c r="G51" s="0" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,10 +5982,10 @@
       <c r="B52" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="E52" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="F52" s="0" t="n">
         <v>159</v>
       </c>
     </row>
@@ -5989,16 +5997,16 @@
         <v>193</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="D53" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="F53" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>368</v>
+      <c r="G53" s="0" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,10 +6016,10 @@
       <c r="B54" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="E54" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="F54" s="0" t="n">
         <v>161</v>
       </c>
     </row>
@@ -6049,7 +6057,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>199</v>
@@ -6087,12 +6095,12 @@
         <v>203</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>204</v>
@@ -6100,7 +6108,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>205</v>
@@ -6108,10 +6116,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6121,39 +6129,39 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,7 +6169,7 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,7 +6177,7 @@
         <v>88</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6177,7 +6185,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,7 +6193,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6210,19 +6218,19 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6247,32 +6255,32 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/ECB2_Lib.Parser.Grammar/Tokens.xlsx
+++ b/ECB2_Lib.Parser.Grammar/Tokens.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="396">
   <si>
     <t xml:space="preserve">Language</t>
   </si>
@@ -709,6 +709,9 @@
     <t xml:space="preserve">Max Number \d.\d{,8]E+/-38</t>
   </si>
   <si>
+    <t xml:space="preserve">https://colorcomputerarchive.com/repo/Documents/Manuals/Hardware/Getting%20Started%20With%20Color%20Basic%20(Tandy).pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primary List</t>
   </si>
   <si>
@@ -916,7 +919,7 @@
     <t xml:space="preserve">Syntax error on ==, &lt;&lt;, or &gt;&gt;.  Type check each side of operation.  Evaluate stores 8 bytes on stack.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alpha expression.  Certain tokens can be evaluated in and alpha expression.  </t>
+    <t xml:space="preserve">Alpha expression.  Certain tokens can be evaluated in an alpha expression.  </t>
   </si>
   <si>
     <t xml:space="preserve">String concatenation.  Type mismatch if numeric variable.  Check if length &gt; 255.  </t>
@@ -1375,7 +1378,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -4061,11 +4064,11 @@
   </sheetPr>
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -4303,6 +4306,11 @@
         <v>214</v>
       </c>
     </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>1</v>
@@ -4310,10 +4318,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,7 +4335,7 @@
         <v>128</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>149</v>
@@ -4339,12 +4347,12 @@
         <v>128</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
@@ -4353,7 +4361,7 @@
         <v>129</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>81</v>
@@ -4365,7 +4373,7 @@
         <v>129</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4387,7 @@
         <v>130</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
@@ -4391,12 +4399,12 @@
         <v>130</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
@@ -4416,7 +4424,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
@@ -4425,7 +4433,7 @@
         <v>132</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>141</v>
@@ -4437,12 +4445,12 @@
         <v>132</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
@@ -4451,7 +4459,7 @@
         <v>133</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>150</v>
@@ -4474,7 +4482,7 @@
         <v>134</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>115</v>
@@ -4497,7 +4505,7 @@
         <v>135</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>86</v>
@@ -4509,12 +4517,12 @@
         <v>135</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
@@ -4523,7 +4531,7 @@
         <v>136</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>153</v>
@@ -4535,7 +4543,7 @@
         <v>136</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,7 +4557,7 @@
         <v>137</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>162</v>
@@ -4561,7 +4569,7 @@
         <v>137</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,7 +4583,7 @@
         <v>138</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>11</v>
@@ -4587,12 +4595,12 @@
         <v>138</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
@@ -4601,7 +4609,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>18</v>
@@ -4613,7 +4621,7 @@
         <v>139</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4655,7 @@
         <v>141</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>82</v>
@@ -4659,7 +4667,7 @@
         <v>141</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4673,7 +4681,7 @@
         <v>142</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>85</v>
@@ -4716,7 +4724,7 @@
         <v>144</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>103</v>
@@ -4728,7 +4736,7 @@
         <v>144</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4750,7 @@
         <v>145</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>122</v>
@@ -4754,7 +4762,7 @@
         <v>145</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,7 +4796,7 @@
         <v>147</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>101</v>
@@ -4800,7 +4808,7 @@
         <v>147</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,7 +4822,7 @@
         <v>148</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,7 +4836,7 @@
         <v>149</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4850,7 @@
         <v>150</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,7 +4888,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>8</v>
@@ -4900,7 +4908,7 @@
         <v>155</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +4922,7 @@
         <v>156</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,7 +4947,7 @@
         <v>158</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,7 +4983,7 @@
         <v>161</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,7 +5010,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>8</v>
@@ -5011,12 +5019,12 @@
         <v>164</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>8</v>
@@ -5027,7 +5035,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>8</v>
@@ -5038,7 +5046,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>8</v>
@@ -5049,7 +5057,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>8</v>
@@ -5060,7 +5068,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>8</v>
@@ -5071,7 +5079,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>8</v>
@@ -5082,7 +5090,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>8</v>
@@ -5093,7 +5101,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>8</v>
@@ -5104,7 +5112,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>8</v>
@@ -5115,7 +5123,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>8</v>
@@ -5124,12 +5132,12 @@
         <v>174</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
@@ -5140,7 +5148,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>8</v>
@@ -5151,7 +5159,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>8</v>
@@ -5162,7 +5170,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>8</v>
@@ -5173,7 +5181,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>8</v>
@@ -5188,7 +5196,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>8</v>
@@ -5199,13 +5207,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,41 +5221,41 @@
         <v>84</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>171</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5272,11 +5280,11 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5286,27 +5294,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,10 +5324,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,7 +5344,7 @@
         <v>162</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,7 +5355,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>59</v>
@@ -5356,18 +5364,18 @@
         <v>163</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>208</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>95</v>
@@ -5384,7 +5392,7 @@
         <v>209</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>97</v>
@@ -5401,7 +5409,7 @@
         <v>210</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>104</v>
@@ -5410,7 +5418,7 @@
         <v>166</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,10 +5429,10 @@
         <v>211</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>167</v>
@@ -5438,7 +5446,7 @@
         <v>212</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,13 +5459,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>214</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,18 +5484,18 @@
         <v>216</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>217</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,7 +5506,7 @@
         <v>218</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,24 +5519,24 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>220</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>221</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,18 +5547,18 @@
         <v>222</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>223</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5561,18 +5569,18 @@
         <v>224</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>225</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,18 +5616,18 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,147 +5637,147 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,10 +5787,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,7 +5801,7 @@
         <v>181</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>12</v>
@@ -5802,7 +5810,7 @@
         <v>148</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,7 +5821,7 @@
         <v>182</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>26</v>
@@ -5822,7 +5830,7 @@
         <v>149</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,7 +5847,7 @@
         <v>150</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,12 +5864,12 @@
         <v>151</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>185</v>
@@ -5887,7 +5895,7 @@
         <v>153</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,7 +5906,7 @@
         <v>187</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>124</v>
@@ -5921,7 +5929,7 @@
         <v>155</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,7 +5954,7 @@
         <v>190</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>163</v>
@@ -5955,7 +5963,7 @@
         <v>157</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,7 +5980,7 @@
         <v>158</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,7 +6005,7 @@
         <v>193</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>123</v>
@@ -6006,7 +6014,7 @@
         <v>160</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6065,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>199</v>
@@ -6095,12 +6103,12 @@
         <v>203</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>204</v>
@@ -6108,7 +6116,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>205</v>
@@ -6116,10 +6124,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,39 +6137,39 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,7 +6177,7 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6177,7 +6185,7 @@
         <v>88</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,7 +6193,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,7 +6201,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6218,19 +6226,19 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6255,32 +6263,32 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
